--- a/exams/exam1/Nersnt.xlsx
+++ b/exams/exam1/Nersnt.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yg/code/github/physiology-en-585-601/exams/exam1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9A6729-7A05-1643-B3B2-2711F8DF4AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24B34C2-C482-AA41-8581-72FBEFEFC98F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E3A01037-A657-3142-A692-87DF6E1A3F33}"/>
+    <workbookView xWindow="5560" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{E3A01037-A657-3142-A692-87DF6E1A3F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Nersnt" sheetId="1" r:id="rId1"/>
     <sheet name="GHK" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407513AD-1B83-6645-8226-2319ADE3497F}">
   <dimension ref="C9:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.3140000000000001</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.2">
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>96485</v>
+        <v>96500</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.2">
@@ -480,7 +480,7 @@
       </c>
       <c r="D15">
         <f>D12*(D9*D10)/D11</f>
-        <v>2.5592143856558013E-2</v>
+        <v>-2.5865284974093263E-2</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.2">
@@ -489,7 +489,7 @@
       </c>
       <c r="D16">
         <f>2.303  * D15</f>
-        <v>5.8938707301653105E-2</v>
+        <v>-5.9567751295336785E-2</v>
       </c>
       <c r="I16">
         <f>34/2</f>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>127</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
@@ -518,7 +518,7 @@
       </c>
       <c r="D21">
         <f>LOG10((D18/D19))</f>
-        <v>1.1038037209559568</v>
+        <v>0.95424250943932487</v>
       </c>
       <c r="I21">
         <f>( 297 * 8.314/96485)</f>
@@ -531,7 +531,7 @@
       </c>
       <c r="D23">
         <f>D16 * D21</f>
-        <v>6.5056764427898719E-2</v>
+        <v>-5.684208047771977E-2</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.2">
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877FA7BC-829B-9F48-84D3-5A242E02933C}">
   <dimension ref="C8:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
